--- a/PFT_DAFT_ZoneWidth/Outputs/Fault_FinalStats_Excel.xlsx
+++ b/PFT_DAFT_ZoneWidth/Outputs/Fault_FinalStats_Excel.xlsx
@@ -15424,7 +15424,7 @@
         <v>2</v>
       </c>
       <c r="D681" t="n">
-        <v>67.0019736661</v>
+        <v>67.0019736663</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>3</v>
       </c>
       <c r="D683" t="n">
-        <v>92.3838345569</v>
+        <v>92.3838345561</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>3</v>
       </c>
       <c r="D699" t="n">
-        <v>148.33630044</v>
+        <v>148.336300439</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>5</v>
       </c>
       <c r="D713" t="n">
-        <v>783.164329664</v>
+        <v>783.164329665</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>4</v>
       </c>
       <c r="D714" t="n">
-        <v>796.175275141</v>
+        <v>796.175275139</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>14</v>
       </c>
       <c r="D749" t="n">
-        <v>916.527462499</v>
+        <v>916.527462497</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>13</v>
       </c>
       <c r="D750" t="n">
-        <v>859.594918671</v>
+        <v>859.5949186730001</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>5</v>
       </c>
       <c r="D758" t="n">
-        <v>759.502296506</v>
+        <v>759.502296507</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>10</v>
       </c>
       <c r="D763" t="n">
-        <v>1149.17595359</v>
+        <v>1149.17595358</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>5</v>
       </c>
       <c r="D765" t="n">
-        <v>950.636947439</v>
+        <v>950.63694744</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>4</v>
       </c>
       <c r="D767" t="n">
-        <v>924.553005239</v>
+        <v>924.5530052399999</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>2</v>
       </c>
       <c r="D1131" t="n">
-        <v>171.732480444</v>
+        <v>171.732480445</v>
       </c>
       <c r="E1131" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>2</v>
       </c>
       <c r="D1145" t="n">
-        <v>155.045715663</v>
+        <v>155.045715662</v>
       </c>
       <c r="E1145" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>4</v>
       </c>
       <c r="D1261" t="n">
-        <v>410.866527547</v>
+        <v>410.866527548</v>
       </c>
       <c r="E1261" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>3</v>
       </c>
       <c r="D1263" t="n">
-        <v>417.794742102</v>
+        <v>417.794742103</v>
       </c>
       <c r="E1263" t="inlineStr">
         <is>
@@ -48402,7 +48402,7 @@
         <v>5</v>
       </c>
       <c r="D2180" t="n">
-        <v>1255.19692472</v>
+        <v>1255.19692471</v>
       </c>
       <c r="E2180" t="inlineStr">
         <is>
@@ -48666,7 +48666,7 @@
         <v>4</v>
       </c>
       <c r="D2192" t="n">
-        <v>1015.54136324</v>
+        <v>1015.54136325</v>
       </c>
       <c r="E2192" t="inlineStr">
         <is>
@@ -53656,7 +53656,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>67.0019736661</v>
+        <v>67.0019736663</v>
       </c>
       <c r="E91" t="n">
         <v>5.35</v>
@@ -53690,7 +53690,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>92.3838345569</v>
+        <v>92.3838345561</v>
       </c>
       <c r="E93" t="n">
         <v>5.45</v>
@@ -53962,7 +53962,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>148.33630044</v>
+        <v>148.336300439</v>
       </c>
       <c r="E109" t="n">
         <v>6.35</v>
@@ -54200,7 +54200,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>783.164329664</v>
+        <v>783.164329665</v>
       </c>
       <c r="E123" t="n">
         <v>7.05</v>
@@ -54217,7 +54217,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>796.175275141</v>
+        <v>796.175275139</v>
       </c>
       <c r="E124" t="n">
         <v>7.1</v>
@@ -54880,7 +54880,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>916.527462499</v>
+        <v>916.527462497</v>
       </c>
       <c r="E163" t="n">
         <v>10.35</v>
@@ -54897,7 +54897,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>859.594918671</v>
+        <v>859.5949186730001</v>
       </c>
       <c r="E164" t="n">
         <v>10.4</v>
@@ -55033,7 +55033,7 @@
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>759.502296506</v>
+        <v>759.502296507</v>
       </c>
       <c r="E172" t="n">
         <v>10.8</v>
@@ -55118,7 +55118,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>1149.17595359</v>
+        <v>1149.17595358</v>
       </c>
       <c r="E177" t="n">
         <v>11.05</v>
@@ -55152,7 +55152,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>950.636947439</v>
+        <v>950.63694744</v>
       </c>
       <c r="E179" t="n">
         <v>11.15</v>
@@ -55186,7 +55186,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>924.553005239</v>
+        <v>924.5530052399999</v>
       </c>
       <c r="E181" t="n">
         <v>11.25</v>
@@ -62292,7 +62292,7 @@
         <v>1</v>
       </c>
       <c r="D599" t="n">
-        <v>171.732480444</v>
+        <v>171.732480445</v>
       </c>
       <c r="E599" t="n">
         <v>53.4</v>
@@ -62530,7 +62530,7 @@
         <v>1</v>
       </c>
       <c r="D613" t="n">
-        <v>155.045715663</v>
+        <v>155.045715662</v>
       </c>
       <c r="E613" t="n">
         <v>54.15</v>
@@ -64893,7 +64893,7 @@
         <v>1</v>
       </c>
       <c r="D752" t="n">
-        <v>410.866527547</v>
+        <v>410.866527548</v>
       </c>
       <c r="E752" t="n">
         <v>72.90000000000001</v>
@@ -64927,7 +64927,7 @@
         <v>1</v>
       </c>
       <c r="D754" t="n">
-        <v>417.794742102</v>
+        <v>417.794742103</v>
       </c>
       <c r="E754" t="n">
         <v>73</v>
@@ -84681,7 +84681,7 @@
         <v>1</v>
       </c>
       <c r="D1916" t="n">
-        <v>1255.19692472</v>
+        <v>1255.19692471</v>
       </c>
       <c r="E1916" t="n">
         <v>203.55</v>
@@ -84885,7 +84885,7 @@
         <v>1</v>
       </c>
       <c r="D1928" t="n">
-        <v>1015.54136324</v>
+        <v>1015.54136325</v>
       </c>
       <c r="E1928" t="n">
         <v>204.15</v>
